--- a/back/routes/dummyBusiness.xlsx
+++ b/back/routes/dummyBusiness.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>경력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,194 @@
   </si>
   <si>
     <t>jibunAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용제목1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용제목3</t>
+  </si>
+  <si>
+    <t>채용제목4</t>
+  </si>
+  <si>
+    <t>채용제목2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용제목5</t>
+  </si>
+  <si>
+    <t>채용제목6</t>
+  </si>
+  <si>
+    <t>채용제목7</t>
+  </si>
+  <si>
+    <t>채용제목8</t>
+  </si>
+  <si>
+    <t>채용제목9</t>
+  </si>
+  <si>
+    <t>채용제목10</t>
+  </si>
+  <si>
+    <t>최소경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 동인동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 삼덕동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 성내1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 성내2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 남일동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암4동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암5동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 평리1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 평리2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 상중이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 비산1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 비산2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명4동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명5동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 칠성동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 산격1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 산격2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 산격3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 산격4동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 만촌1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 만촌2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 만촌3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 수성1가동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 수성2가동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 두류1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 두류2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 두류3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 두류4동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 본리동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,7 +785,11 @@
     <col min="9" max="9" width="23.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="11.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="19.125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -649,8 +841,21 @@
       <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T1"/>
-      <c r="U1"/>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -666,12 +871,12 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f ca="1">"대구 " &amp; INDEX($L$1:$L$8, RANDBETWEEN(1, 8))</f>
-        <v>대구 중구</v>
+        <f ca="1">"대구 " &amp; INDEX($U$1:$U$35, RANDBETWEEN(1, 8))</f>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F2" s="1" t="str">
         <f ca="1">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
-        <v>01057432886</v>
+        <v>01062240977</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>34</v>
@@ -685,11 +890,11 @@
       </c>
       <c r="J2" s="1" t="str">
         <f ca="1">"0" &amp; TEXT(RANDBETWEEN(1, 9), "0")</f>
-        <v>02</v>
+        <v>06</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,3), "관계없음", "신입", RANDBETWEEN(1,9))</f>
-        <v>신입</v>
+        <f t="shared" ref="K2:K11" ca="1" si="0">CHOOSE(RANDBETWEEN(1,3), "관계없음", "신입", RANDBETWEEN(1,9))</f>
+        <v>관계없음</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>7</v>
@@ -706,8 +911,22 @@
       <c r="P2" s="5">
         <v>4</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="Q2" s="3" t="str">
+        <f t="shared" ref="Q2:Q11" ca="1" si="1">TEXT(RANDBETWEEN(1, 31), "0")</f>
+        <v>11</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -723,30 +942,30 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E11" ca="1" si="0">"대구 " &amp; INDEX($L$1:$L$8, RANDBETWEEN(1, 8))</f>
-        <v>대구 달서구</v>
+        <f t="shared" ref="E3:E11" ca="1" si="2">"대구 " &amp; INDEX($U$1:$U$35, RANDBETWEEN(1, 8))</f>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F11" ca="1" si="1">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
-        <v>01011961602</v>
+        <f t="shared" ref="F3:F11" ca="1" si="3">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
+        <v>01089777516</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>출근·재택 병행</v>
+        <v>재택 근무 가능</v>
       </c>
       <c r="I3" s="2">
         <v>2024</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J11" ca="1" si="2">"0" &amp; TEXT(RANDBETWEEN(1, 9), "0")</f>
-        <v>09</v>
-      </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K11" ca="1" si="3">CHOOSE(RANDBETWEEN(1,3), "관계없음", "신입", RANDBETWEEN(1,9))</f>
-        <v>5</v>
+        <f t="shared" ref="J3:J11" ca="1" si="4">"0" &amp; TEXT(RANDBETWEEN(1, 9), "0")</f>
+        <v>07</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>관계없음</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>8</v>
@@ -763,8 +982,22 @@
       <c r="P3" s="5">
         <v>4</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="Q3" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -780,12 +1013,12 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>대구 중구</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>01045763643</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>01049387109</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>36</v>
@@ -798,12 +1031,12 @@
         <v>2024</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>04</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>01</v>
       </c>
       <c r="K4" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>신입</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>관계없음</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>9</v>
@@ -820,8 +1053,22 @@
       <c r="P4" s="1">
         <v>4</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="Q4" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1">
+        <v>7</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -837,12 +1084,12 @@
         <v>27</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>대구 달서구</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>01063911225</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>01021143972</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>37</v>
@@ -855,12 +1102,12 @@
         <v>2024</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>04</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>02</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>관계없음</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>신입</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>10</v>
@@ -877,8 +1124,22 @@
       <c r="P5" s="1">
         <v>3</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="Q5" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="2">
+        <v>7</v>
+      </c>
+      <c r="T5" s="1">
+        <v>10</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -894,12 +1155,12 @@
         <v>28</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>대구 달성군</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>01017795374</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>01044807198</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>38</v>
@@ -912,11 +1173,11 @@
         <v>2024</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>06</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>01</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="0"/>
         <v>관계없음</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -934,8 +1195,22 @@
       <c r="P6" s="1">
         <v>4</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="Q6" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -951,12 +1226,12 @@
         <v>29</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>대구 중구</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>01001412912</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>01010330091</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>39</v>
@@ -969,11 +1244,11 @@
         <v>2024</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>08</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>05</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -991,8 +1266,22 @@
       <c r="P7" s="1">
         <v>2</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="Q7" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1008,30 +1297,30 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>대구 동구</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>01096323511</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>01084293174</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>출근·재택 병행</v>
+        <v>사업자 주소와 동일 (출근)</v>
       </c>
       <c r="I8" s="2">
         <v>2024</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>02</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>03</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>51</v>
@@ -1048,8 +1337,22 @@
       <c r="P8" s="1">
         <v>3</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="Q8" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="2">
+        <v>2</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1065,12 +1368,12 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>대구 달성군</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>01089919606</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>01002430737</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>41</v>
@@ -1083,12 +1386,12 @@
         <v>2024</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>06</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>05</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>관계없음</v>
       </c>
       <c r="M9" s="1">
         <v>4</v>
@@ -1102,8 +1405,22 @@
       <c r="P9" s="1">
         <v>1</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="Q9" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>7</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1119,12 +1436,12 @@
         <v>32</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>01087369552</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>01005585331</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>42</v>
@@ -1137,12 +1454,12 @@
         <v>2024</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>02</v>
-      </c>
-      <c r="K10" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>관계없음</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>07</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="M10" s="1">
         <v>4</v>
@@ -1156,8 +1473,22 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="Q10" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
+      <c r="T10" s="1">
+        <v>7</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1173,29 +1504,29 @@
         <v>33</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>01014694158</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>01062086103</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>사업자 주소와 동일 (출근)</v>
+        <v>재택 근무 가능</v>
       </c>
       <c r="I11" s="2">
         <v>2024</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>06</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>03</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="M11" s="1">
@@ -1210,8 +1541,22 @@
       <c r="P11" s="1">
         <v>2</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="Q11" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -1227,6 +1572,9 @@
       <c r="K12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
+      <c r="U12" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -1242,6 +1590,9 @@
       <c r="K13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
+      <c r="U13" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -1257,6 +1608,9 @@
       <c r="K14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
+      <c r="U14" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -1272,6 +1626,9 @@
       <c r="K15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
+      <c r="U15" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -1287,8 +1644,11 @@
       <c r="K16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1302,8 +1662,11 @@
       <c r="K17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U17" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1317,8 +1680,11 @@
       <c r="K18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U18" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1332,8 +1698,11 @@
       <c r="K19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U19" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1347,8 +1716,11 @@
       <c r="K20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1362,8 +1734,11 @@
       <c r="K21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U21" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1377,8 +1752,11 @@
       <c r="K22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U22" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1392,8 +1770,11 @@
       <c r="K23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1407,8 +1788,11 @@
       <c r="K24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1422,8 +1806,11 @@
       <c r="K25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U25" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1437,8 +1824,11 @@
       <c r="K26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1452,8 +1842,11 @@
       <c r="K27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U27" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1467,8 +1860,11 @@
       <c r="K28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U28" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1482,8 +1878,11 @@
       <c r="K29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U29" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1497,6 +1896,34 @@
       <c r="K30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
+      <c r="U30" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U31" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U32" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U33" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U34" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U35" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/back/routes/dummyBusiness.xlsx
+++ b/back/routes/dummyBusiness.xlsx
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -872,25 +872,25 @@
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">"대구 " &amp; INDEX($U$1:$U$35, RANDBETWEEN(1, 8))</f>
-        <v>대구 중구 남일동</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F2" s="1" t="str">
         <f ca="1">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
-        <v>01062240977</v>
+        <v>01076667526</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>재택 근무 가능</v>
+        <v>사업자 주소와 동일 (출근)</v>
       </c>
       <c r="I2" s="2">
         <v>2024</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f ca="1">"0" &amp; TEXT(RANDBETWEEN(1, 9), "0")</f>
-        <v>06</v>
+        <f ca="1">TEXT(IF(RANDBETWEEN(1,12) &lt; 10, "0" &amp; RANDBETWEEN(1, 12), RANDBETWEEN(1, 12)), "00")</f>
+        <v>03</v>
       </c>
       <c r="K2" s="3" t="str">
         <f t="shared" ref="K2:K11" ca="1" si="0">CHOOSE(RANDBETWEEN(1,3), "관계없음", "신입", RANDBETWEEN(1,9))</f>
@@ -912,8 +912,8 @@
         <v>4</v>
       </c>
       <c r="Q2" s="3" t="str">
-        <f t="shared" ref="Q2:Q11" ca="1" si="1">TEXT(RANDBETWEEN(1, 31), "0")</f>
-        <v>11</v>
+        <f ca="1">TEXT(IF(RANDBETWEEN(1, 31) &lt; 10, "0" &amp; RANDBETWEEN(1, 31), RANDBETWEEN(1, 31)), "00")</f>
+        <v>13</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>56</v>
@@ -942,30 +942,30 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E11" ca="1" si="2">"대구 " &amp; INDEX($U$1:$U$35, RANDBETWEEN(1, 8))</f>
-        <v>대구 중구 동인동</v>
+        <f t="shared" ref="E3:E11" ca="1" si="1">"대구 " &amp; INDEX($U$1:$U$35, RANDBETWEEN(1, 8))</f>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F11" ca="1" si="3">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
-        <v>01089777516</v>
+        <f t="shared" ref="F3:F11" ca="1" si="2">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
+        <v>01042928766</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>재택 근무 가능</v>
+        <v>출근·재택 병행</v>
       </c>
       <c r="I3" s="2">
         <v>2024</v>
       </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J11" ca="1" si="4">"0" &amp; TEXT(RANDBETWEEN(1, 9), "0")</f>
-        <v>07</v>
+      <c r="J3" s="3" t="str">
+        <f t="shared" ref="J3:J11" ca="1" si="3">TEXT(IF(RANDBETWEEN(1,12) &lt; 10, "0" &amp; RANDBETWEEN(1, 12), RANDBETWEEN(1, 12)), "00")</f>
+        <v>06</v>
       </c>
       <c r="K3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>관계없음</v>
+        <v>신입</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>8</v>
@@ -983,8 +983,8 @@
         <v>4</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ref="Q3:Q11" ca="1" si="4">TEXT(IF(RANDBETWEEN(1, 31) &lt; 10, "0" &amp; RANDBETWEEN(1, 31), RANDBETWEEN(1, 31)), "00")</f>
+        <v>22</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>59</v>
@@ -1013,26 +1013,26 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>대구 중구 남일동</v>
+      </c>
+      <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>대구 동구 신암2동</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>01049387109</v>
+        <v>01098742262</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>재택 근무 가능</v>
+        <v>사업자 주소와 동일 (출근)</v>
       </c>
       <c r="I4" s="2">
         <v>2024</v>
       </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>01</v>
+      <c r="J4" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="K4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1054,8 +1054,8 @@
         <v>4</v>
       </c>
       <c r="Q4" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>57</v>
@@ -1084,30 +1084,30 @@
         <v>27</v>
       </c>
       <c r="E5" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>대구 동구 신암1동</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>대구 중구 성내1동</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>01021143972</v>
+        <v>01074986549</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>사업자 주소와 동일 (출근)</v>
+        <v>재택 근무 가능</v>
       </c>
       <c r="I5" s="2">
         <v>2024</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>02</v>
+      <c r="J5" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>06</v>
       </c>
       <c r="K5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>신입</v>
+        <v>관계없음</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>10</v>
@@ -1125,8 +1125,8 @@
         <v>3</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>03</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>58</v>
@@ -1155,49 +1155,49 @@
         <v>28</v>
       </c>
       <c r="E6" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>대구 동구 신암1동</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>대구 중구 남일동</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>01044807198</v>
+        <v>01025943930</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>사업자 주소와 동일 (출근)</v>
+        <v>출근·재택 병행</v>
       </c>
       <c r="I6" s="2">
         <v>2024</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>07</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>01</v>
-      </c>
-      <c r="K6" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>관계없음</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>60</v>
@@ -1226,30 +1226,30 @@
         <v>29</v>
       </c>
       <c r="E7" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>대구 중구 성내2동</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>대구 동구 신암2동</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>01010330091</v>
+        <v>01080094554</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>사업자 주소와 동일 (출근)</v>
+        <v>출근·재택 병행</v>
       </c>
       <c r="I7" s="2">
         <v>2024</v>
       </c>
-      <c r="J7" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>05</v>
+      <c r="J7" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>01</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>12</v>
@@ -1267,8 +1267,8 @@
         <v>2</v>
       </c>
       <c r="Q7" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>61</v>
@@ -1297,26 +1297,26 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>대구 동구 신암2동</v>
+      </c>
+      <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>대구 중구 동인동</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>01084293174</v>
+        <v>01057165863</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>사업자 주소와 동일 (출근)</v>
+        <v>출근·재택 병행</v>
       </c>
       <c r="I8" s="2">
         <v>2024</v>
       </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>03</v>
+      <c r="J8" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>07</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -1338,8 +1338,8 @@
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>62</v>
@@ -1368,30 +1368,30 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>대구 중구 삼덕동</v>
+      </c>
+      <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>대구 동구 신암2동</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>01002430737</v>
+        <v>01095979062</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="2" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>재택 근무 가능</v>
+        <v>사업자 주소와 동일 (출근)</v>
       </c>
       <c r="I9" s="2">
         <v>2024</v>
       </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J9" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>05</v>
       </c>
       <c r="K9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>관계없음</v>
+        <v>신입</v>
       </c>
       <c r="M9" s="1">
         <v>4</v>
@@ -1406,8 +1406,8 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>63</v>
@@ -1436,46 +1436,46 @@
         <v>32</v>
       </c>
       <c r="E10" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>대구 중구 성내1동</v>
+      </c>
+      <c r="F10" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>대구 동구 신암3동</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>01005585331</v>
+        <v>01053233333</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>재택 근무 가능</v>
+        <v>사업자 주소와 동일 (출근)</v>
       </c>
       <c r="I10" s="2">
         <v>2024</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>04</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>관계없음</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>07</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>3</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>64</v>
@@ -1504,30 +1504,30 @@
         <v>33</v>
       </c>
       <c r="E11" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>대구 중구 남일동</v>
+      </c>
+      <c r="F11" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>대구 동구 신암3동</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>01062086103</v>
+        <v>01019368751</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="3" t="str">
         <f ca="1">INDEX({"사업자 주소와 동일 (출근)","재택 근무 가능","출근·재택 병행"}, RANDBETWEEN(1,3))</f>
-        <v>재택 근무 가능</v>
+        <v>사업자 주소와 동일 (출근)</v>
       </c>
       <c r="I11" s="2">
         <v>2024</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>03</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="J11" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>06</v>
+      </c>
+      <c r="K11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>관계없음</v>
       </c>
       <c r="M11" s="1">
         <v>4</v>
@@ -1542,8 +1542,8 @@
         <v>2</v>
       </c>
       <c r="Q11" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>65</v>
